--- a/FiberGather/Source/Corp.ShanGong.FiberInstrument.Model/SensorConfig.xlsx
+++ b/FiberGather/Source/Corp.ShanGong.FiberInstrument.Model/SensorConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>传感器序号</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>FirstWave</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始波长2（nm）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveLowerLimit</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveUpperLimit</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>波长间隔下限(nm)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>波长间隔上限(nm)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移灵敏度系数(mm/pm)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplaceValue</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstWave2</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -643,6 +679,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -773,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1176,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,15 +1239,16 @@
     <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="15" style="7" customWidth="1"/>
-    <col min="6" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="25" style="16" customWidth="1"/>
+    <col min="6" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="12" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="25" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,23 +1274,35 @@
         <v>32</v>
       </c>
       <c r="I1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -1265,23 +1328,35 @@
         <v>33</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1306,24 +1381,34 @@
       <c r="H3" s="2">
         <v>1532.8768</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="2"/>
+      <c r="J3" s="8">
         <v>0.80800000000000005</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="21">
         <v>17.850000000000001</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="2">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="15">
+      <c r="P3" s="15">
         <v>8</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1348,20 +1433,24 @@
       <c r="H4" s="2">
         <v>1556.0694000000001</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8">
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="21">
         <v>10.66</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="15">
         <v>8</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1375,33 +1464,39 @@
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8">
-        <v>1560.9223999999999</v>
+        <v>1560.0319999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>30.2</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>1560.8818000000001</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="J5" s="8">
-        <v>14.37</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15">
+        <v>1545.0940000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1560.0319999999999</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="15">
         <v>8</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1410,14 +1505,18 @@
       <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O6" s="9"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1426,14 +1525,18 @@
       <c r="F7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O7" s="9"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1442,14 +1545,18 @@
       <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O8" s="9"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1458,14 +1565,18 @@
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O9" s="2"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1474,14 +1585,18 @@
       <c r="F10" s="8"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O10" s="2"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1490,14 +1605,18 @@
       <c r="F11" s="8"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O11" s="2"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1506,14 +1625,18 @@
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O12" s="2"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1522,14 +1645,18 @@
       <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O13" s="2"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1538,14 +1665,18 @@
       <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O14" s="9"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1554,14 +1685,18 @@
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O15" s="9"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1570,14 +1705,18 @@
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O16" s="9"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1586,14 +1725,18 @@
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O17" s="9"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1602,14 +1745,18 @@
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="8"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O18" s="9"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1618,14 +1765,18 @@
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O19" s="9"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1634,14 +1785,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O20" s="9"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1650,14 +1805,18 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O21" s="9"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1666,14 +1825,18 @@
       <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1682,14 +1845,18 @@
       <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1701,11 +1868,15 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="2"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1717,11 +1888,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="2"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1733,11 +1908,15 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="2"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1749,11 +1928,15 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="2"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1765,11 +1948,15 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="2"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1781,11 +1968,15 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29" s="2"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1797,11 +1988,15 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30" s="2"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1813,11 +2008,15 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" s="2"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1829,11 +2028,15 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="2"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1845,11 +2048,15 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="2"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1861,11 +2068,15 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="2"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1877,11 +2088,15 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="2"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1893,9 +2108,13 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
